--- a/templates/report_altynfin.xlsx
+++ b/templates/report_altynfin.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>№ п/п</t>
   </si>
@@ -57,15 +57,6 @@
     <t>ТИП ФИН-Я</t>
   </si>
   <si>
-    <t>Фикс</t>
-  </si>
-  <si>
-    <t>09.02.2017</t>
-  </si>
-  <si>
-    <t>10.08.2017</t>
-  </si>
-  <si>
     <t>с</t>
   </si>
   <si>
@@ -90,9 +81,6 @@
     <t>Сумма посредника</t>
   </si>
   <si>
-    <t>ВТБ24</t>
-  </si>
-  <si>
     <t>Собрано ДС</t>
   </si>
   <si>
@@ -102,12 +90,6 @@
     <t>Вид финансирования</t>
   </si>
   <si>
-    <t>Факторинг</t>
-  </si>
-  <si>
-    <t>Клиент № 1</t>
-  </si>
-  <si>
     <t>Сумма агента</t>
   </si>
   <si>
@@ -129,90 +111,6 @@
     <t>Финансовый отчет ALTYNFIN за период</t>
   </si>
   <si>
-    <t>${table.t1.index}</t>
-  </si>
-  <si>
-    <t>${table.t1.agr_number}</t>
-  </si>
-  <si>
-    <t>${table.t1.merchant}</t>
-  </si>
-  <si>
-    <t>${table.t1.financing_type}</t>
-  </si>
-  <si>
-    <t>${table.t1.financing_purpose}</t>
-  </si>
-  <si>
-    <t>${table.t1.finanincg_date}</t>
-  </si>
-  <si>
-    <t>${table.t1.plan_closing_date}</t>
-  </si>
-  <si>
-    <t>${table.t1.founding_amount}</t>
-  </si>
-  <si>
-    <t>${table.t1.factoring_rate}</t>
-  </si>
-  <si>
-    <t>${table.t1.amount_to_return}</t>
-  </si>
-  <si>
-    <t>${table.t1.payments_count}</t>
-  </si>
-  <si>
-    <t>${table.t1.payment_amount}</t>
-  </si>
-  <si>
-    <t>${table.t1.dly_withdraw_rate}</t>
-  </si>
-  <si>
-    <t>${table.t1.bank}</t>
-  </si>
-  <si>
-    <t>${table.t1.bank_comission_percent}</t>
-  </si>
-  <si>
-    <t>${table.t1.bank_comission}</t>
-  </si>
-  <si>
-    <t>${table.t1.mediator_comission_percent}</t>
-  </si>
-  <si>
-    <t>${table.t1.mediator_comission}</t>
-  </si>
-  <si>
-    <t>${table.t1.agent_comission_percent}</t>
-  </si>
-  <si>
-    <t>${table.t1.agent_comission}</t>
-  </si>
-  <si>
-    <t>${table.t1.manager_comission_percent}</t>
-  </si>
-  <si>
-    <t>${table.t1.manager_comission}</t>
-  </si>
-  <si>
-    <t>${table.t1.gross_profit}</t>
-  </si>
-  <si>
-    <t>${table.t1.effective_rate}</t>
-  </si>
-  <si>
-    <t>${table.t1.total_collected}</t>
-  </si>
-  <si>
-    <t>${table.t1.total_pending}</t>
-  </si>
-  <si>
-    <t>${table.t1.closing_percent}</t>
-  </si>
-  <si>
-    <t>${table.t1.currnet_gross_profit}</t>
-  </si>
-  <si>
     <t>${total_founding_amount}</t>
   </si>
   <si>
@@ -259,6 +157,90 @@
   </si>
   <si>
     <t>${to_date}</t>
+  </si>
+  <si>
+    <t>${table:t1.index}</t>
+  </si>
+  <si>
+    <t>${table:t1.agr_number}</t>
+  </si>
+  <si>
+    <t>${table:t1.merchant}</t>
+  </si>
+  <si>
+    <t>${table:t1.financing_purpose}</t>
+  </si>
+  <si>
+    <t>${table:t1.financing_type}</t>
+  </si>
+  <si>
+    <t>${table:t1.finanincg_date}</t>
+  </si>
+  <si>
+    <t>${table:t1.plan_closing_date}</t>
+  </si>
+  <si>
+    <t>${table:t1.founding_amount}</t>
+  </si>
+  <si>
+    <t>${table:t1.factoring_rate}</t>
+  </si>
+  <si>
+    <t>${table:t1.amount_to_return}</t>
+  </si>
+  <si>
+    <t>${table:t1.payments_count}</t>
+  </si>
+  <si>
+    <t>${table:t1.payment_amount}</t>
+  </si>
+  <si>
+    <t>${table:t1.dly_withdraw_rate}</t>
+  </si>
+  <si>
+    <t>${table:t1.bank}</t>
+  </si>
+  <si>
+    <t>${table:t1.bank_comission_percent}</t>
+  </si>
+  <si>
+    <t>${table:t1.bank_comission}</t>
+  </si>
+  <si>
+    <t>${table:t1.mediator_comission_percent}</t>
+  </si>
+  <si>
+    <t>${table:t1.mediator_comission}</t>
+  </si>
+  <si>
+    <t>${table:t1.agent_comission_percent}</t>
+  </si>
+  <si>
+    <t>${table:t1.agent_comission}</t>
+  </si>
+  <si>
+    <t>${table:t1.manager_comission_percent}</t>
+  </si>
+  <si>
+    <t>${table:t1.manager_comission}</t>
+  </si>
+  <si>
+    <t>${table:t1.gross_profit}</t>
+  </si>
+  <si>
+    <t>${table:t1.effective_rate}</t>
+  </si>
+  <si>
+    <t>${table:t1.total_collected}</t>
+  </si>
+  <si>
+    <t>${table:t1.total_pending}</t>
+  </si>
+  <si>
+    <t>${table:t1.closing_percent}</t>
+  </si>
+  <si>
+    <t>${table:t1.currnet_gross_profit}</t>
   </si>
 </sst>
 </file>
@@ -470,10 +452,10 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal 5" xfId="3"/>
@@ -501,13 +483,13 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1458702</xdr:rowOff>
+      <xdr:rowOff>1487277</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -524,7 +506,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="133350"/>
+          <a:off x="371475" y="161925"/>
           <a:ext cx="2905125" cy="1325352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -825,10 +807,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AB16"/>
+  <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -860,33 +842,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="133.5" customHeight="1">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
     </row>
     <row r="2" spans="1:28" ht="12" customHeight="1"/>
     <row r="3" spans="1:28" ht="18.75">
-      <c r="B3" s="27" t="s">
-        <v>36</v>
+      <c r="B3" s="26" t="s">
+        <v>30</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J3" s="13" t="s">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="33.75">
@@ -900,7 +882,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E6" s="20" t="s">
         <v>12</v>
@@ -930,322 +912,227 @@
         <v>9</v>
       </c>
       <c r="N6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q6" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="S6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="O6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="S6" s="20" t="s">
-        <v>21</v>
-      </c>
       <c r="T6" s="20" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="U6" s="20" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="V6" s="20" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="W6" s="22" t="s">
         <v>10</v>
       </c>
       <c r="X6" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y6" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA6" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB6" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" ht="33.75">
+      <c r="A7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N7" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U7" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="X7" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="AB7" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="Y6" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA6" s="22" t="s">
+      <c r="K8" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AB6" s="22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
-      <c r="A7" s="8">
-        <v>0</v>
-      </c>
-      <c r="B7" s="8">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="1">
-        <v>300000</v>
-      </c>
-      <c r="I7" s="15">
-        <v>0.25</v>
-      </c>
-      <c r="J7" s="1">
-        <f>H7+H7*I7/100%</f>
-        <v>375000</v>
-      </c>
-      <c r="K7" s="10">
-        <v>120</v>
-      </c>
-      <c r="L7" s="1">
-        <v>3125</v>
-      </c>
-      <c r="M7" s="10">
-        <v>30</v>
-      </c>
-      <c r="N7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="15">
-        <v>0.03</v>
-      </c>
-      <c r="P7" s="1">
-        <f>J7*O7</f>
-        <v>11250</v>
-      </c>
-      <c r="Q7" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="R7" s="1">
-        <f>H7*Q7</f>
-        <v>1500</v>
-      </c>
-      <c r="S7" s="11">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="T7" s="1">
-        <f>H7*S7</f>
-        <v>1500</v>
-      </c>
-      <c r="U7" s="16">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V7" s="1">
-        <f>H7*U7</f>
-        <v>900</v>
-      </c>
-      <c r="W7" s="1">
-        <f>J7-H7-P7-R7-T7-V7</f>
-        <v>59850</v>
-      </c>
-      <c r="X7" s="18">
-        <f>W7/H7</f>
-        <v>0.19950000000000001</v>
-      </c>
-      <c r="Y7" s="1">
-        <v>181250</v>
-      </c>
-      <c r="Z7" s="1">
-        <v>193750</v>
-      </c>
-      <c r="AA7" s="18">
-        <f>Y7/J7</f>
-        <v>0.48333333333333334</v>
-      </c>
-      <c r="AB7" s="1">
-        <f>W7*AA7</f>
-        <v>28927.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28" ht="33.75">
-      <c r="A8" s="8" t="s">
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="U8" s="1"/>
+      <c r="V8" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="W8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="Z8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="AA8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="AB8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="M8" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="N8" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="S8" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="T8" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="U8" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="V8" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="X8" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA8" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Z9" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AA9" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="AB9" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="G9" s="3"/>
+      <c r="Y9" s="4"/>
     </row>
     <row r="10" spans="1:28">
       <c r="G10" s="3"/>
+      <c r="I10" s="4"/>
       <c r="Y10" s="4"/>
     </row>
     <row r="11" spans="1:28">
       <c r="G11" s="3"/>
-      <c r="I11" s="4"/>
+      <c r="I11" s="2"/>
       <c r="Y11" s="4"/>
     </row>
     <row r="12" spans="1:28">
       <c r="G12" s="3"/>
-      <c r="I12" s="2"/>
       <c r="Y12" s="4"/>
     </row>
     <row r="13" spans="1:28">
       <c r="G13" s="3"/>
+      <c r="L13" s="5"/>
       <c r="Y13" s="4"/>
     </row>
     <row r="14" spans="1:28">
       <c r="G14" s="3"/>
-      <c r="L14" s="5"/>
       <c r="Y14" s="4"/>
     </row>
     <row r="15" spans="1:28">
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
       <c r="G15" s="3"/>
       <c r="Y15" s="4"/>
-    </row>
-    <row r="16" spans="1:28">
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="G16" s="3"/>
-      <c r="Y16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/templates/report_altynfin.xlsx
+++ b/templates/report_altynfin.xlsx
@@ -385,7 +385,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
@@ -428,9 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,8 +450,14 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -855,7 +858,7 @@
     </row>
     <row r="2" spans="1:28" ht="12" customHeight="1"/>
     <row r="3" spans="1:28" ht="18.75">
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="25" t="s">
         <v>30</v>
       </c>
       <c r="G3" s="14" t="s">
@@ -872,88 +875,88 @@
       </c>
     </row>
     <row r="6" spans="1:28" ht="33.75">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="22" t="s">
+      <c r="H6" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="I6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="22" t="s">
+      <c r="J6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="24" t="s">
+      <c r="K6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="20" t="s">
+      <c r="N6" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="20" t="s">
+      <c r="O6" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="20" t="s">
+      <c r="P6" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="20" t="s">
+      <c r="Q6" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="20" t="s">
+      <c r="S6" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="20" t="s">
+      <c r="T6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="22" t="s">
+      <c r="W6" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="25" t="s">
+      <c r="Y6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="22" t="s">
+      <c r="Z6" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="22" t="s">
+      <c r="AA6" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="22" t="s">
+      <c r="AB6" s="21" t="s">
         <v>28</v>
       </c>
     </row>
@@ -1027,7 +1030,7 @@
       <c r="W7" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="18" t="s">
+      <c r="X7" s="26" t="s">
         <v>70</v>
       </c>
       <c r="Y7" s="1" t="s">
@@ -1036,7 +1039,7 @@
       <c r="Z7" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="18" t="s">
+      <c r="AA7" s="28" t="s">
         <v>73</v>
       </c>
       <c r="AB7" s="1" t="s">
@@ -1094,7 +1097,7 @@
       <c r="Z8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="18" t="s">
+      <c r="AA8" s="28" t="s">
         <v>43</v>
       </c>
       <c r="AB8" s="1" t="s">

--- a/templates/report_altynfin.xlsx
+++ b/templates/report_altynfin.xlsx
@@ -108,9 +108,6 @@
     <t>Доля собранных ДС</t>
   </si>
   <si>
-    <t>Финансовый отчет ALTYNFIN за период</t>
-  </si>
-  <si>
     <t>${total_founding_amount}</t>
   </si>
   <si>
@@ -241,6 +238,9 @@
   </si>
   <si>
     <t>${table:t1.currnet_gross_profit}</t>
+  </si>
+  <si>
+    <t>Финансовый отчет FRESH CAPITAL за период</t>
   </si>
 </sst>
 </file>
@@ -385,12 +385,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -453,11 +450,11 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -484,13 +481,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:colOff>102717</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>668808</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>1487277</xdr:rowOff>
     </xdr:to>
@@ -509,8 +506,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="371475" y="161925"/>
-          <a:ext cx="2905125" cy="1325352"/>
+          <a:off x="464667" y="161925"/>
+          <a:ext cx="1194741" cy="1325352"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -813,7 +810,7 @@
   <dimension ref="A1:AB15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -839,7 +836,7 @@
     <col min="19" max="19" width="8.5703125" customWidth="1"/>
     <col min="20" max="22" width="11.42578125" customWidth="1"/>
     <col min="23" max="23" width="14.7109375" customWidth="1"/>
-    <col min="24" max="24" width="13.5703125" style="17" customWidth="1"/>
+    <col min="24" max="24" width="13.5703125" style="16" customWidth="1"/>
     <col min="25" max="25" width="17.7109375" customWidth="1"/>
     <col min="26" max="28" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -858,192 +855,192 @@
     </row>
     <row r="2" spans="1:28" ht="12" customHeight="1"/>
     <row r="3" spans="1:28" ht="18.75">
-      <c r="B3" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="14" t="s">
+      <c r="B3" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>45</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="33.75">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="20" t="s">
+      <c r="G6" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="22" t="s">
+      <c r="I6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="21" t="s">
+      <c r="J6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="K6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="S6" s="19" t="s">
+      <c r="S6" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="T6" s="19" t="s">
+      <c r="T6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="19" t="s">
+      <c r="U6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="V6" s="19" t="s">
+      <c r="V6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="W6" s="21" t="s">
+      <c r="W6" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="X6" s="21" t="s">
+      <c r="X6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="Y6" s="24" t="s">
+      <c r="Y6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Z6" s="21" t="s">
+      <c r="Z6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="AA6" s="21" t="s">
+      <c r="AA6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="AB6" s="21" t="s">
+      <c r="AB6" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="33.75">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="E7" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="H7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="J7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="L7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="N7" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="O7" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="O7" s="15" t="s">
+      <c r="P7" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Q7" s="11" t="s">
+      <c r="R7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="11" t="s">
+      <c r="T7" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="1" t="s">
+      <c r="U7" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="U7" s="16" t="s">
+      <c r="V7" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="V7" s="1" t="s">
+      <c r="W7" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="W7" s="1" t="s">
+      <c r="X7" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="X7" s="26" t="s">
+      <c r="Y7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y7" s="1" t="s">
+      <c r="Z7" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="Z7" s="1" t="s">
+      <c r="AA7" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="AA7" s="28" t="s">
+      <c r="AB7" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="AB7" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -1055,87 +1052,86 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="10" t="s">
+      <c r="L8" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q8" s="1"/>
       <c r="R8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S8" s="1"/>
       <c r="T8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="U8" s="1"/>
       <c r="V8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="W8" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="W8" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="X8" s="1"/>
       <c r="Y8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Z8" s="1" t="s">
+      <c r="AA8" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="AA8" s="28" t="s">
+      <c r="AB8" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="AB8" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:28">
-      <c r="G9" s="3"/>
-      <c r="Y9" s="4"/>
+      <c r="G9" s="2"/>
+      <c r="Y9" s="3"/>
     </row>
     <row r="10" spans="1:28">
-      <c r="G10" s="3"/>
-      <c r="I10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="G10" s="2"/>
+      <c r="I10" s="3"/>
+      <c r="Y10" s="3"/>
     </row>
     <row r="11" spans="1:28">
-      <c r="G11" s="3"/>
-      <c r="I11" s="2"/>
-      <c r="Y11" s="4"/>
+      <c r="G11" s="2"/>
+      <c r="Y11" s="3"/>
     </row>
     <row r="12" spans="1:28">
-      <c r="G12" s="3"/>
-      <c r="Y12" s="4"/>
+      <c r="G12" s="2"/>
+      <c r="Y12" s="3"/>
     </row>
     <row r="13" spans="1:28">
-      <c r="G13" s="3"/>
-      <c r="L13" s="5"/>
-      <c r="Y13" s="4"/>
+      <c r="G13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="Y13" s="3"/>
     </row>
     <row r="14" spans="1:28">
-      <c r="G14" s="3"/>
-      <c r="Y14" s="4"/>
+      <c r="G14" s="2"/>
+      <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:28">
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="G15" s="3"/>
-      <c r="Y15" s="4"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="G15" s="2"/>
+      <c r="Y15" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
